--- a/Configs/GameConfig/Datas/item.xlsx
+++ b/Configs/GameConfig/Datas/item.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Configs/GameConfig/Datas/item.xlsx
+++ b/Configs/GameConfig/Datas/item.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Configs/GameConfig/Datas/item.xlsx
+++ b/Configs/GameConfig/Datas/item.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17370"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
